--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_20.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_20.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995623260716571</v>
+        <v>0.9497548287230614</v>
       </c>
       <c r="C2" t="n">
-        <v>0.829833122452748</v>
+        <v>0.7364343839298377</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8203917427599413</v>
+        <v>0.7461576263392129</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9955759091738203</v>
+        <v>0.8993869722811918</v>
       </c>
       <c r="F2" t="n">
-        <v>0.001821829411235161</v>
+        <v>0.1761349795989753</v>
       </c>
       <c r="G2" t="n">
-        <v>1.137906693704898</v>
+        <v>1.762464488269245</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6424483218625678</v>
+        <v>0.9079794519581313</v>
       </c>
       <c r="I2" t="n">
-        <v>0.006416645969263979</v>
+        <v>0.1847789276534654</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08447880339949122</v>
+        <v>1.369057248829309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04268289366051886</v>
+        <v>0.4196843809328329</v>
       </c>
       <c r="L2" t="n">
-        <v>1.028011131413948</v>
+        <v>0.931581043367573</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0433551065684319</v>
+        <v>0.4262939904020592</v>
       </c>
       <c r="N2" t="n">
-        <v>142.6158282234624</v>
+        <v>37.47300929668907</v>
       </c>
       <c r="O2" t="n">
-        <v>283.9510007666788</v>
+        <v>74.43759288491489</v>
       </c>
     </row>
     <row r="3">
@@ -561,193 +561,193 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9996165844101308</v>
+        <v>0.9496808591674579</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8297607828202278</v>
+        <v>0.7359004475350148</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8203852864027052</v>
+        <v>0.7458356878698436</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9964165730281811</v>
+        <v>0.9015237701518967</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001595977628812232</v>
+        <v>0.1763942806588789</v>
       </c>
       <c r="G3" t="n">
-        <v>1.138390429160654</v>
+        <v>1.766034923399978</v>
       </c>
       <c r="H3" t="n">
-        <v>0.64247141587804</v>
+        <v>0.9091310071960005</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005197357635338004</v>
+        <v>0.180854632479042</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0786267048444793</v>
+        <v>1.348420152525166</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03994968871984151</v>
+        <v>0.41999319120538</v>
       </c>
       <c r="L3" t="n">
-        <v>1.024538597751629</v>
+        <v>0.9314803188663257</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04057885638214145</v>
+        <v>0.4266076641277018</v>
       </c>
       <c r="N3" t="n">
-        <v>142.8805375941754</v>
+        <v>37.47006711700757</v>
       </c>
       <c r="O3" t="n">
-        <v>284.2157101373918</v>
+        <v>74.43465070523338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_6</t>
+          <t>model_1_20_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999605185256506</v>
+        <v>0.9496728762387259</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8295363006913944</v>
+        <v>0.7358649850790918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8192739108293737</v>
+        <v>0.7457952153137754</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9969522224193741</v>
+        <v>0.9017008103080637</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001643426910096857</v>
+        <v>0.1764222649000236</v>
       </c>
       <c r="G4" t="n">
-        <v>1.139891542189808</v>
+        <v>1.766272061006024</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6464467418625884</v>
+        <v>0.9092757751823226</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004420458461704763</v>
+        <v>0.1805294927734805</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08083708277821465</v>
+        <v>1.346637027231757</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04053920213937193</v>
+        <v>0.4200265049970342</v>
       </c>
       <c r="L4" t="n">
-        <v>1.025268143583617</v>
+        <v>0.9314694484952863</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04117765404873225</v>
+        <v>0.426641502578273</v>
       </c>
       <c r="N4" t="n">
-        <v>142.8219432759061</v>
+        <v>37.4697498502404</v>
       </c>
       <c r="O4" t="n">
-        <v>284.1571158191225</v>
+        <v>74.43433343846621</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_5</t>
+          <t>model_1_20_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995992036919316</v>
+        <v>0.9496443699537847</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8294667290172231</v>
+        <v>0.7357165149573958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8194029537958276</v>
+        <v>0.7458320856895023</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9970193069086482</v>
+        <v>0.9018911215960191</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001668325332326684</v>
+        <v>0.1765221939835347</v>
       </c>
       <c r="G5" t="n">
-        <v>1.14035676829534</v>
+        <v>1.767264881393448</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6459851626539239</v>
+        <v>0.9091438919862146</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004323159957986629</v>
+        <v>0.1801799802251947</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08057939073605055</v>
+        <v>1.34467685255605</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04084513841727904</v>
+        <v>0.4201454438447889</v>
       </c>
       <c r="L5" t="n">
-        <v>1.02565096371638</v>
+        <v>0.9314306314264301</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04148840851719231</v>
+        <v>0.4267623145939847</v>
       </c>
       <c r="N5" t="n">
-        <v>142.7918699014055</v>
+        <v>37.46861733112963</v>
       </c>
       <c r="O5" t="n">
-        <v>284.1270424446219</v>
+        <v>74.43320091935544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_7</t>
+          <t>model_1_20_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9996068624335112</v>
+        <v>0.9496146203666146</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8293643071138367</v>
+        <v>0.7355650107162377</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8193777744111506</v>
+        <v>0.7458697993223977</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9967829707590558</v>
+        <v>0.9020819981609005</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001636445616037674</v>
+        <v>0.1766264814761654</v>
       </c>
       <c r="G6" t="n">
-        <v>1.141041664034894</v>
+        <v>1.768277990951685</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6460752278529291</v>
+        <v>0.9090089925081098</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004665938951740404</v>
+        <v>0.1798294295284049</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07966538080409191</v>
+        <v>1.34269850125237</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04045300503099459</v>
+        <v>0.4202695343183531</v>
       </c>
       <c r="L6" t="n">
-        <v>1.025160804255286</v>
+        <v>0.9313901213502838</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04109009942206347</v>
+        <v>0.4268883593684625</v>
       </c>
       <c r="N6" t="n">
-        <v>142.8304573928991</v>
+        <v>37.4674361006405</v>
       </c>
       <c r="O6" t="n">
-        <v>284.1656299361155</v>
+        <v>74.43201968886632</v>
       </c>
     </row>
     <row r="7">
@@ -757,193 +757,193 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9995706687475975</v>
+        <v>0.9496035528079533</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8292267637988896</v>
+        <v>0.7355199202369889</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8196540120660374</v>
+        <v>0.7458326892557752</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9969387038132934</v>
+        <v>0.9022580380865053</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001787102799909888</v>
+        <v>0.1766652789201679</v>
       </c>
       <c r="G7" t="n">
-        <v>1.141961416815274</v>
+        <v>1.768579511194043</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6450871417785788</v>
+        <v>0.9091417330646531</v>
       </c>
       <c r="I7" t="n">
-        <v>0.004440065678786417</v>
+        <v>0.1795061267771115</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0889606505825624</v>
+        <v>1.340824297911253</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0422741386654996</v>
+        <v>0.4203156895955323</v>
       </c>
       <c r="L7" t="n">
-        <v>1.027477200153761</v>
+        <v>0.9313750506321066</v>
       </c>
       <c r="M7" t="n">
-        <v>0.04293991409084617</v>
+        <v>0.426935241545119</v>
       </c>
       <c r="N7" t="n">
-        <v>142.654319035858</v>
+        <v>37.46699683260758</v>
       </c>
       <c r="O7" t="n">
-        <v>283.9894915790744</v>
+        <v>74.4315804208334</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_2</t>
+          <t>model_1_20_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995710511701927</v>
+        <v>0.9495746084546</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8291516908791496</v>
+        <v>0.7353803395807448</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8197460005272001</v>
+        <v>0.7458589215730345</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9975091243457689</v>
+        <v>0.902445677074459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001785510955647834</v>
+        <v>0.1767667436571332</v>
       </c>
       <c r="G8" t="n">
-        <v>1.142463429775254</v>
+        <v>1.769512887685058</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6447581043867969</v>
+        <v>0.9090479015868539</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003612734876978501</v>
+        <v>0.1791615219901752</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08181230047731131</v>
+        <v>1.338813604843945</v>
       </c>
       <c r="K8" t="n">
-        <v>0.04225530683414609</v>
+        <v>0.4204363728997922</v>
       </c>
       <c r="L8" t="n">
-        <v>1.027452725107665</v>
+        <v>0.9313356370445617</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04292078567697377</v>
+        <v>0.427057825490782</v>
       </c>
       <c r="N8" t="n">
-        <v>142.656101310099</v>
+        <v>37.4658484959174</v>
       </c>
       <c r="O8" t="n">
-        <v>283.9912738533154</v>
+        <v>74.43043208414322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_3</t>
+          <t>model_1_20_1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995766148114821</v>
+        <v>0.9495267431376231</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8291248909858342</v>
+        <v>0.7353325955940805</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8197323258566049</v>
+        <v>0.7454177558708981</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9975123109202392</v>
+        <v>0.9038372177413768</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001762352150249431</v>
+        <v>0.1769345360323002</v>
       </c>
       <c r="G9" t="n">
-        <v>1.142642640785256</v>
+        <v>1.769832151943723</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6448070178906131</v>
+        <v>0.9106259257231384</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003608113109245</v>
+        <v>0.1766059146493655</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08155527843798453</v>
+        <v>1.323761274214353</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04198037815753249</v>
+        <v>0.4206358710717623</v>
       </c>
       <c r="L9" t="n">
-        <v>1.027096652065147</v>
+        <v>0.9312704587405931</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04264152714853136</v>
+        <v>0.4272604655595355</v>
       </c>
       <c r="N9" t="n">
-        <v>142.6822118263596</v>
+        <v>37.46395093549125</v>
       </c>
       <c r="O9" t="n">
-        <v>284.017384369576</v>
+        <v>74.42853452371708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_20_1</t>
+          <t>model_1_20_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995175660546952</v>
+        <v>0.9495462239763697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8290857614979371</v>
+        <v>0.7352468731906348</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8199640756190032</v>
+        <v>0.7458824507157868</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9978342297555823</v>
+        <v>0.9026322623023398</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002008144176789284</v>
+        <v>0.1768662457459304</v>
       </c>
       <c r="G10" t="n">
-        <v>1.142904299850999</v>
+        <v>1.77040537805028</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6439780624281376</v>
+        <v>0.9089637392075269</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00314120605909781</v>
+        <v>0.1788188524661036</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07949161178609133</v>
+        <v>1.336800133487026</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0448123217071966</v>
+        <v>0.4205546881749511</v>
       </c>
       <c r="L10" t="n">
-        <v>1.030875772499506</v>
+        <v>0.931296985840163</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04551807097819772</v>
+        <v>0.4271780041132527</v>
       </c>
       <c r="N10" t="n">
-        <v>142.4210885570807</v>
+        <v>37.46472301165089</v>
       </c>
       <c r="O10" t="n">
-        <v>283.7562611002971</v>
+        <v>74.42930659987671</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994849967417511</v>
+        <v>0.9493417814325226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8288560640115925</v>
+        <v>0.7346695292881233</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8197608011615626</v>
+        <v>0.7453954504518514</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9982127849276747</v>
+        <v>0.9050779997117402</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002143714811417036</v>
+        <v>0.17758292124677</v>
       </c>
       <c r="G11" t="n">
-        <v>1.144440287999845</v>
+        <v>1.774266079384798</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6447051633758725</v>
+        <v>0.910705710913726</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002592154374901555</v>
+        <v>0.1743271803031905</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07308712610561782</v>
+        <v>1.308510584983555</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04630026794109334</v>
+        <v>0.4214058865829594</v>
       </c>
       <c r="L11" t="n">
-        <v>1.032960208527932</v>
+        <v>0.9310185959932222</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04702945087787778</v>
+        <v>0.4280426080453009</v>
       </c>
       <c r="N11" t="n">
-        <v>142.2904301233682</v>
+        <v>37.45663523439841</v>
       </c>
       <c r="O11" t="n">
-        <v>283.6256026665846</v>
+        <v>74.42121882262423</v>
       </c>
     </row>
   </sheetData>
